--- a/2023/lebanon_premier-league_2023-2024.xlsx
+++ b/2023/lebanon_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Al Sahel</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Al Ghazieh</t>
+          <t>Al Ansar</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>3.98</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.67</v>
+        <v>4.23</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:00</t>
+          <t>20/08/2023 14:06</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.08</v>
+        <v>3.39</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.64</v>
+        <v>3.49</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:00</t>
+          <t>20/08/2023 15:31</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.46</v>
+        <v>1.76</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.06</v>
+        <v>1.82</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:00</t>
+          <t>20/08/2023 14:06</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ghazieh/QDWlcvKR/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-sahel-al-ansar/SMIGhbSr/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Sahel</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Al Ansar</t>
+          <t>Al Ghazieh</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.98</v>
+        <v>2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.23</v>
+        <v>1.67</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:06</t>
+          <t>20/08/2023 15:00</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.39</v>
+        <v>3.08</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.49</v>
+        <v>3.64</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20/08/2023 15:31</t>
+          <t>20/08/2023 15:00</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.76</v>
+        <v>3.46</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.82</v>
+        <v>5.06</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:06</t>
+          <t>20/08/2023 15:00</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-sahel-al-ansar/SMIGhbSr/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ghazieh/QDWlcvKR/</t>
         </is>
       </c>
     </row>
@@ -3582,6 +3582,466 @@
       <c r="V34" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-safa/h2V4OGIQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45226.58333333334</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Al Sahel</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Bourj FC</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:04</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:04</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:04</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-sahel-bourj/xz7yJftl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Al Ghazieh</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Al Hikma</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ghazieh-al-hikma/jwBuIEef/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Al Ansar</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tadamon</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:05</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:03</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:05</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ansar-tadamon/p0AqHYA0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45228.55208333334</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Al Ahli Nabatiya</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/racing-al-ahli-nabatiya/42QpFCuD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45228.65625</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Safa</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Al Ahed</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>28/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:47</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>28/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:47</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>28/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:47</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/safa-al-ahed/rgPlEWfJ/</t>
         </is>
       </c>
     </row>

--- a/2023/lebanon_premier-league_2023-2024.xlsx
+++ b/2023/lebanon_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Sahel</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Al Ansar</t>
+          <t>Al Ghazieh</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.98</v>
+        <v>2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.23</v>
+        <v>1.67</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:06</t>
+          <t>20/08/2023 15:00</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.39</v>
+        <v>3.08</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.49</v>
+        <v>3.64</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:31</t>
+          <t>20/08/2023 15:00</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.76</v>
+        <v>3.46</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.82</v>
+        <v>5.06</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:06</t>
+          <t>20/08/2023 15:00</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-sahel-al-ansar/SMIGhbSr/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ghazieh/QDWlcvKR/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Al Sahel</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Al Ghazieh</t>
+          <t>Al Ansar</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>3.98</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.67</v>
+        <v>4.23</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20/08/2023 15:00</t>
+          <t>20/08/2023 14:06</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.08</v>
+        <v>3.39</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.64</v>
+        <v>3.49</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20/08/2023 15:00</t>
+          <t>20/08/2023 15:31</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.46</v>
+        <v>1.76</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.06</v>
+        <v>1.82</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 15:00</t>
+          <t>20/08/2023 14:06</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ghazieh/QDWlcvKR/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-sahel-al-ansar/SMIGhbSr/</t>
         </is>
       </c>
     </row>
@@ -4042,6 +4042,190 @@
       <c r="V39" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/lebanon/premier-league/safa-al-ahed/rgPlEWfJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45234.55208333334</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Safa</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Tadamon</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:21</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:20</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:21</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/safa-tadamon/8Yu0Lm2n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45234.55208333334</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Tripoli</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Al Ahed</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:17</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ahed/UmU8JRWb/</t>
         </is>
       </c>
     </row>

--- a/2023/lebanon_premier-league_2023-2024.xlsx
+++ b/2023/lebanon_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Al Sahel</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Al Ghazieh</t>
+          <t>Al Ansar</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>3.98</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.67</v>
+        <v>4.23</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:00</t>
+          <t>20/08/2023 14:06</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.08</v>
+        <v>3.39</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.64</v>
+        <v>3.49</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:00</t>
+          <t>20/08/2023 15:31</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.46</v>
+        <v>1.76</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.06</v>
+        <v>1.82</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:00</t>
+          <t>20/08/2023 14:06</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ghazieh/QDWlcvKR/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-sahel-al-ansar/SMIGhbSr/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Sahel</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Al Ansar</t>
+          <t>Al Ghazieh</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.98</v>
+        <v>2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.23</v>
+        <v>1.67</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:06</t>
+          <t>20/08/2023 15:00</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.39</v>
+        <v>3.08</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.49</v>
+        <v>3.64</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20/08/2023 15:31</t>
+          <t>20/08/2023 15:00</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.76</v>
+        <v>3.46</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.82</v>
+        <v>5.06</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 14:06</t>
+          <t>20/08/2023 15:00</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-sahel-al-ansar/SMIGhbSr/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ghazieh/QDWlcvKR/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tadamon</t>
+          <t>Al Ghazieh</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Ahli Nabatiya</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.09</v>
+        <v>2.51</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,11 +2436,11 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.09</v>
+        <v>3.9</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>27/08/2023 13:43</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>27/08/2023 14:04</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.38</v>
+        <v>2.66</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.44</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>27/08/2023 14:04</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/tadamon-al-ahli-nabatiya/O8bFDa48/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ghazieh-racing/2acJCJJE/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Ghazieh</t>
+          <t>Tadamon</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Al Ahli Nabatiya</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.51</v>
+        <v>2.09</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,11 +2528,11 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.9</v>
+        <v>2.09</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 13:43</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 14:04</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.66</v>
+        <v>3.38</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 14:04</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ghazieh-racing/2acJCJJE/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/tadamon-al-ahli-nabatiya/O8bFDa48/</t>
         </is>
       </c>
     </row>
@@ -4226,6 +4226,98 @@
       <c r="V41" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ahed/UmU8JRWb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Al Ansar</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Bourj FC</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ansar-bourj/jcV4K7Hh/</t>
         </is>
       </c>
     </row>

--- a/2023/lebanon_premier-league_2023-2024.xlsx
+++ b/2023/lebanon_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4321,6 +4321,98 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45239.55208333334</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Al Ahed</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Tadamon</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>09/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>09/11/2023 13:08</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>09/11/2023 13:08</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ahed-tadamon/6TsxJFco/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/lebanon_premier-league_2023-2024.xlsx
+++ b/2023/lebanon_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Ghazieh</t>
+          <t>Tadamon</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Al Ahli Nabatiya</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.51</v>
+        <v>2.09</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,11 +2436,11 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.9</v>
+        <v>2.09</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 13:43</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 14:04</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.66</v>
+        <v>3.38</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 14:04</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ghazieh-racing/2acJCJJE/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/tadamon-al-ahli-nabatiya/O8bFDa48/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tadamon</t>
+          <t>Al Ghazieh</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Al Ahli Nabatiya</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.09</v>
+        <v>2.51</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,11 +2528,11 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.09</v>
+        <v>3.9</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>27/08/2023 13:43</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27/08/2023 14:04</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.38</v>
+        <v>2.66</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.44</v>
+        <v>1.83</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>27/08/2023 14:04</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/tadamon-al-ahli-nabatiya/O8bFDa48/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ghazieh-racing/2acJCJJE/</t>
         </is>
       </c>
     </row>
@@ -4410,6 +4410,98 @@
       <c r="V43" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ahed-tadamon/6TsxJFco/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45240.55208333334</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Al Ansar</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Al Ghazieh</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>10/11/2023 12:16</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>10/11/2023 12:16</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>10/11/2023 12:16</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ansar-al-ghazieh/KxNLGPGH/</t>
         </is>
       </c>
     </row>

--- a/2023/lebanon_premier-league_2023-2024.xlsx
+++ b/2023/lebanon_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4505,6 +4505,98 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45240.625</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Safa</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Bourj FC</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:52</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:52</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:52</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:52</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:52</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:52</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/safa-bourj/SrCeANgo/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/lebanon_premier-league_2023-2024.xlsx
+++ b/2023/lebanon_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bourj FC</t>
+          <t>Al Ahli Nabatiya</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Al Ghazieh</t>
+          <t>Safa</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.43</v>
+        <v>3.22</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>2.97</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:15</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.96</v>
+        <v>3.03</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.39</v>
+        <v>3.32</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.1</v>
+        <v>2.24</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>7.96</v>
+        <v>2.31</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 14:31</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/bourj-al-ghazieh/EJhsvaDk/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ahli-nabatiya-safa/zTgwuubq/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Ahli Nabatiya</t>
+          <t>Bourj FC</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Safa</t>
+          <t>Al Ghazieh</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.22</v>
+        <v>1.43</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:12</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.97</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:15</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.03</v>
+        <v>3.96</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:12</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.32</v>
+        <v>4.39</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.24</v>
+        <v>6.1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:12</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.31</v>
+        <v>7.96</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 14:31</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ahli-nabatiya-safa/zTgwuubq/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/bourj-al-ghazieh/EJhsvaDk/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tadamon</t>
+          <t>Al Ghazieh</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Al Ahli Nabatiya</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.09</v>
+        <v>2.51</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,11 +2436,11 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.09</v>
+        <v>3.9</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>27/08/2023 13:43</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>27/08/2023 14:04</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.38</v>
+        <v>2.66</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.44</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>27/08/2023 14:04</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/tadamon-al-ahli-nabatiya/O8bFDa48/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ghazieh-racing/2acJCJJE/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Ghazieh</t>
+          <t>Tadamon</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Al Ahli Nabatiya</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.51</v>
+        <v>2.09</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,11 +2528,11 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.9</v>
+        <v>2.09</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 13:43</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 14:04</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.66</v>
+        <v>3.38</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 14:04</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ghazieh-racing/2acJCJJE/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/tadamon-al-ahli-nabatiya/O8bFDa48/</t>
         </is>
       </c>
     </row>
@@ -4594,6 +4594,98 @@
       <c r="V45" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/lebanon/premier-league/safa-bourj/SrCeANgo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Nejmeh SC</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Al Hikma</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>09/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:46</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>09/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:46</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>09/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:46</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/nejmeh-sc-al-hikma/pKttIZCi/</t>
         </is>
       </c>
     </row>

--- a/2023/lebanon_premier-league_2023-2024.xlsx
+++ b/2023/lebanon_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4689,6 +4689,98 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45242.55208333334</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Tripoli</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Al Ahli Nabatiya</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:19</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:20</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:19</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ahli-nabatiya/QZPTE3oU/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/lebanon_premier-league_2023-2024.xlsx
+++ b/2023/lebanon_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Ahli Nabatiya</t>
+          <t>Bourj FC</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Safa</t>
+          <t>Al Ghazieh</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.22</v>
+        <v>1.43</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:12</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.97</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:15</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.03</v>
+        <v>3.96</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:12</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.32</v>
+        <v>4.39</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.24</v>
+        <v>6.1</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:12</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.31</v>
+        <v>7.96</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>12/08/2023 14:31</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ahli-nabatiya-safa/zTgwuubq/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/bourj-al-ghazieh/EJhsvaDk/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bourj FC</t>
+          <t>Al Ahli Nabatiya</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Al Ghazieh</t>
+          <t>Safa</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.43</v>
+        <v>3.22</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>2.97</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12/08/2023 15:15</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.96</v>
+        <v>3.03</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.39</v>
+        <v>3.32</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>6.1</v>
+        <v>2.24</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>12/08/2023 12:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>7.96</v>
+        <v>2.31</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 14:31</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/bourj-al-ghazieh/EJhsvaDk/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ahli-nabatiya-safa/zTgwuubq/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Sahel</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Al Ansar</t>
+          <t>Al Ghazieh</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.98</v>
+        <v>2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.23</v>
+        <v>1.67</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:06</t>
+          <t>20/08/2023 15:00</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.39</v>
+        <v>3.08</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.49</v>
+        <v>3.64</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:31</t>
+          <t>20/08/2023 15:00</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.76</v>
+        <v>3.46</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.82</v>
+        <v>5.06</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 14:06</t>
+          <t>20/08/2023 15:00</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-sahel-al-ansar/SMIGhbSr/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ghazieh/QDWlcvKR/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Al Sahel</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Al Ghazieh</t>
+          <t>Al Ansar</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>3.98</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.67</v>
+        <v>4.23</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20/08/2023 15:00</t>
+          <t>20/08/2023 14:06</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.08</v>
+        <v>3.39</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.64</v>
+        <v>3.49</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20/08/2023 15:00</t>
+          <t>20/08/2023 15:31</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.46</v>
+        <v>1.76</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.06</v>
+        <v>1.82</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 15:00</t>
+          <t>20/08/2023 14:06</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ghazieh/QDWlcvKR/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-sahel-al-ansar/SMIGhbSr/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Ghazieh</t>
+          <t>Tadamon</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Al Ahli Nabatiya</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.51</v>
+        <v>2.09</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,11 +2436,11 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.9</v>
+        <v>2.09</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 13:43</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 14:04</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.66</v>
+        <v>3.38</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 14:04</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ghazieh-racing/2acJCJJE/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/tadamon-al-ahli-nabatiya/O8bFDa48/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tadamon</t>
+          <t>Al Ghazieh</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Al Ahli Nabatiya</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.09</v>
+        <v>2.51</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,11 +2528,11 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.09</v>
+        <v>3.9</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>27/08/2023 13:43</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27/08/2023 14:04</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.38</v>
+        <v>2.66</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.44</v>
+        <v>1.83</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>27/08/2023 14:04</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/tadamon-al-ahli-nabatiya/O8bFDa48/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ghazieh-racing/2acJCJJE/</t>
         </is>
       </c>
     </row>
@@ -4778,6 +4778,98 @@
       <c r="V47" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ahli-nabatiya/QZPTE3oU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45242.65625</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Al Sahel</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:37</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:50</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/racing-al-sahel/WCQPFqWN/</t>
         </is>
       </c>
     </row>

--- a/2023/lebanon_premier-league_2023-2024.xlsx
+++ b/2023/lebanon_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Safa</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tadamon</t>
+          <t>Al Ahed</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.69</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.78</v>
+        <v>13.27</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>04/11/2023 10:21</t>
+          <t>04/11/2023 13:13</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.4</v>
+        <v>5.91</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.47</v>
+        <v>6.72</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>04/11/2023 11:20</t>
+          <t>04/11/2023 13:13</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.32</v>
+        <v>1.21</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.42</v>
+        <v>1.18</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>04/11/2023 10:21</t>
+          <t>04/11/2023 11:17</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/safa-tadamon/8Yu0Lm2n/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ahed/UmU8JRWb/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Safa</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Al Ahed</t>
+          <t>Tadamon</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>8.609999999999999</v>
+        <v>1.69</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>13.27</v>
+        <v>1.78</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>04/11/2023 13:13</t>
+          <t>04/11/2023 10:21</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>5.91</v>
+        <v>3.4</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>6.72</v>
+        <v>3.47</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>04/11/2023 13:13</t>
+          <t>04/11/2023 11:20</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.21</v>
+        <v>4.32</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.18</v>
+        <v>4.42</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>04/11/2023 11:17</t>
+          <t>04/11/2023 10:21</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/lebanon/premier-league/tripoli-sc-al-ahed/UmU8JRWb/</t>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/safa-tadamon/8Yu0Lm2n/</t>
         </is>
       </c>
     </row>
@@ -4870,6 +4870,466 @@
       <c r="V48" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/lebanon/premier-league/racing-al-sahel/WCQPFqWN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45267.55208333334</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Al Ahed</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Al Ghazieh</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>07/12/2023 11:51</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>07/12/2023 11:51</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>07/12/2023 11:51</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>07/12/2023 11:54</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>07/12/2023 11:51</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>07/12/2023 11:54</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ahed-al-ghazieh/GtARTWB3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45268.55208333334</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Tadamon</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Bourj FC</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>07/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:44</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>07/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>08/12/2023 11:19</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>07/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:44</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/tadamon-bourj/KEGIVhsi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45268.625</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Nejmeh SC</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Al Ansar</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>07/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:15</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>07/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>08/12/2023 13:04</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>07/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:15</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/nejmeh-sc-al-ansar/fX8VSjR9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45270.55208333334</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Al Ahli Nabatiya</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Al Sahel</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:19</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:19</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:19</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/al-ahli-nabatiya-al-sahel/h8OW7kkp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>lebanon</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45270.625</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Safa</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>10/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:05</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>10/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:05</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>10/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:05</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/lebanon/premier-league/safa-racing/b5FMUCdc/</t>
         </is>
       </c>
     </row>
